--- a/src/main/resources/FeatureFiles/CouchbaseVsMongoDbPageTestCases.xlsx
+++ b/src/main/resources/FeatureFiles/CouchbaseVsMongoDbPageTestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurcharan/Desktop/CouchBase/src/main/resources/FeatureFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C13C401-BB51-1344-B9DD-4BEB0A91E450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D209CC80-FB78-D041-AD1B-1C16CEC02E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -192,9 +192,6 @@
     <t>openBrowser</t>
   </si>
   <si>
-    <t>https://www.couchbase.com/comparing-couchbase-vs-mongodb-mobile/</t>
-  </si>
-  <si>
     <t>CouchbaseVsMongoDbPage_BrandLogo_ImageLink</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>{null}</t>
+  </si>
+  <si>
+    <t>{BaseURL}+/comparing-couchbase-vs-mongodb-mobile/</t>
   </si>
 </sst>
 </file>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C150" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
-      <selection activeCell="D162" sqref="D162"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -700,7 +700,7 @@
         <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -711,7 +711,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -719,7 +719,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -727,7 +727,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -743,7 +743,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -754,7 +754,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -765,7 +765,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>17</v>
@@ -776,7 +776,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>17</v>
@@ -787,7 +787,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>18</v>
@@ -798,7 +798,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>18</v>
@@ -809,7 +809,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
@@ -820,7 +820,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
@@ -831,7 +831,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>10</v>
@@ -842,7 +842,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>14</v>
@@ -853,7 +853,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
@@ -864,7 +864,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -872,7 +872,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -883,7 +883,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>25</v>
@@ -894,7 +894,7 @@
         <v>38</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>25</v>
@@ -905,7 +905,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>17</v>
@@ -916,7 +916,7 @@
         <v>38</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>17</v>
@@ -927,7 +927,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>18</v>
@@ -938,7 +938,7 @@
         <v>38</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>18</v>
@@ -949,7 +949,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>11</v>
@@ -960,7 +960,7 @@
         <v>38</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>11</v>
@@ -971,7 +971,7 @@
         <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>10</v>
@@ -982,7 +982,7 @@
         <v>9</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>14</v>
@@ -993,7 +993,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>12</v>
@@ -1004,7 +1004,7 @@
         <v>13</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1012,7 +1012,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1020,7 +1020,7 @@
         <v>26</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>44</v>
@@ -1034,7 +1034,7 @@
         <v>5</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>27</v>
@@ -1045,7 +1045,7 @@
         <v>16</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>28</v>
@@ -1056,7 +1056,7 @@
         <v>5</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
@@ -1067,7 +1067,7 @@
         <v>16</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>6</v>
@@ -1078,7 +1078,7 @@
         <v>5</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>18</v>
@@ -1089,7 +1089,7 @@
         <v>16</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>18</v>
@@ -1100,7 +1100,7 @@
         <v>5</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>11</v>
@@ -1111,7 +1111,7 @@
         <v>16</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>11</v>
@@ -1122,7 +1122,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>10</v>
@@ -1133,7 +1133,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>14</v>
@@ -1144,7 +1144,7 @@
         <v>5</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>12</v>
@@ -1155,7 +1155,7 @@
         <v>13</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1163,7 +1163,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1171,7 +1171,7 @@
         <v>26</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>29</v>
@@ -1185,7 +1185,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>17</v>
@@ -1196,7 +1196,7 @@
         <v>16</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>17</v>
@@ -1207,7 +1207,7 @@
         <v>5</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>6</v>
@@ -1218,7 +1218,7 @@
         <v>16</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>6</v>
@@ -1229,7 +1229,7 @@
         <v>5</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>30</v>
@@ -1240,7 +1240,7 @@
         <v>16</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>31</v>
@@ -1251,7 +1251,7 @@
         <v>5</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>11</v>
@@ -1262,7 +1262,7 @@
         <v>16</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>11</v>
@@ -1273,7 +1273,7 @@
         <v>9</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>10</v>
@@ -1284,7 +1284,7 @@
         <v>9</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>14</v>
@@ -1295,7 +1295,7 @@
         <v>5</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>12</v>
@@ -1306,7 +1306,7 @@
         <v>13</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1314,7 +1314,7 @@
         <v>4</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1322,7 +1322,7 @@
         <v>26</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>29</v>
@@ -1336,7 +1336,7 @@
         <v>5</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>17</v>
@@ -1347,7 +1347,7 @@
         <v>16</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>17</v>
@@ -1358,7 +1358,7 @@
         <v>5</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>6</v>
@@ -1369,7 +1369,7 @@
         <v>16</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>6</v>
@@ -1380,7 +1380,7 @@
         <v>5</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D71" t="s">
         <v>32</v>
@@ -1391,7 +1391,7 @@
         <v>16</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>32</v>
@@ -1402,7 +1402,7 @@
         <v>5</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>33</v>
@@ -1413,7 +1413,7 @@
         <v>16</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>33</v>
@@ -1424,7 +1424,7 @@
         <v>9</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>10</v>
@@ -1435,7 +1435,7 @@
         <v>9</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>14</v>
@@ -1446,7 +1446,7 @@
         <v>5</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>12</v>
@@ -1457,7 +1457,7 @@
         <v>13</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -1465,7 +1465,7 @@
         <v>4</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1473,7 +1473,7 @@
         <v>26</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>34</v>
@@ -1487,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>17</v>
@@ -1498,7 +1498,7 @@
         <v>16</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>17</v>
@@ -1509,7 +1509,7 @@
         <v>5</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>6</v>
@@ -1520,7 +1520,7 @@
         <v>16</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>6</v>
@@ -1531,7 +1531,7 @@
         <v>5</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D86" t="s">
         <v>32</v>
@@ -1542,7 +1542,7 @@
         <v>16</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>32</v>
@@ -1553,7 +1553,7 @@
         <v>5</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>35</v>
@@ -1564,7 +1564,7 @@
         <v>16</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>35</v>
@@ -1575,7 +1575,7 @@
         <v>9</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>10</v>
@@ -1586,7 +1586,7 @@
         <v>9</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>14</v>
@@ -1597,7 +1597,7 @@
         <v>13</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -1605,7 +1605,7 @@
         <v>4</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1613,7 +1613,7 @@
         <v>26</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>36</v>
@@ -1627,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>17</v>
@@ -1638,7 +1638,7 @@
         <v>16</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>17</v>
@@ -1649,7 +1649,7 @@
         <v>5</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>6</v>
@@ -1660,7 +1660,7 @@
         <v>16</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>6</v>
@@ -1671,7 +1671,7 @@
         <v>5</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D100" t="s">
         <v>32</v>
@@ -1682,7 +1682,7 @@
         <v>16</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>32</v>
@@ -1693,7 +1693,7 @@
         <v>5</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>35</v>
@@ -1704,7 +1704,7 @@
         <v>16</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>35</v>
@@ -1715,7 +1715,7 @@
         <v>9</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>10</v>
@@ -1726,7 +1726,7 @@
         <v>5</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>12</v>
@@ -1737,7 +1737,7 @@
         <v>13</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -1745,7 +1745,7 @@
         <v>4</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1753,7 +1753,7 @@
         <v>26</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>36</v>
@@ -1767,7 +1767,7 @@
         <v>5</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>17</v>
@@ -1778,7 +1778,7 @@
         <v>16</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>17</v>
@@ -1789,7 +1789,7 @@
         <v>5</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>6</v>
@@ -1800,7 +1800,7 @@
         <v>16</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>6</v>
@@ -1811,7 +1811,7 @@
         <v>5</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D114" t="s">
         <v>32</v>
@@ -1822,7 +1822,7 @@
         <v>16</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>32</v>
@@ -1833,7 +1833,7 @@
         <v>5</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>35</v>
@@ -1844,7 +1844,7 @@
         <v>16</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>35</v>
@@ -1855,7 +1855,7 @@
         <v>9</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>14</v>
@@ -1866,7 +1866,7 @@
         <v>5</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>12</v>
@@ -1877,7 +1877,7 @@
         <v>13</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -1885,7 +1885,7 @@
         <v>4</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1893,7 +1893,7 @@
         <v>26</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>36</v>
@@ -1901,13 +1901,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>6</v>
@@ -1918,7 +1918,7 @@
         <v>16</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>6</v>
@@ -1929,7 +1929,7 @@
         <v>5</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>18</v>
@@ -1940,7 +1940,7 @@
         <v>16</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>18</v>
@@ -1951,7 +1951,7 @@
         <v>5</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>11</v>
@@ -1962,7 +1962,7 @@
         <v>16</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>11</v>
@@ -1973,7 +1973,7 @@
         <v>9</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>10</v>
@@ -1984,7 +1984,7 @@
         <v>9</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>14</v>
@@ -1995,7 +1995,7 @@
         <v>5</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>12</v>
@@ -2006,7 +2006,7 @@
         <v>13</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -2014,7 +2014,7 @@
         <v>4</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -2022,7 +2022,7 @@
         <v>26</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>36</v>
@@ -2030,13 +2030,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>6</v>
@@ -2047,7 +2047,7 @@
         <v>16</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>6</v>
@@ -2058,7 +2058,7 @@
         <v>5</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>17</v>
@@ -2069,7 +2069,7 @@
         <v>16</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>17</v>
@@ -2080,7 +2080,7 @@
         <v>5</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>11</v>
@@ -2091,7 +2091,7 @@
         <v>16</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>11</v>
@@ -2102,7 +2102,7 @@
         <v>9</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>10</v>
@@ -2113,7 +2113,7 @@
         <v>9</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>14</v>
@@ -2124,7 +2124,7 @@
         <v>5</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>12</v>
@@ -2135,7 +2135,7 @@
         <v>13</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -2143,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -2151,7 +2151,7 @@
         <v>26</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>36</v>
@@ -2159,13 +2159,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>6</v>
@@ -2176,7 +2176,7 @@
         <v>16</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>6</v>
@@ -2187,7 +2187,7 @@
         <v>5</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>17</v>
@@ -2198,7 +2198,7 @@
         <v>16</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>17</v>
@@ -2209,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>18</v>
@@ -2220,7 +2220,7 @@
         <v>16</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>18</v>
@@ -2231,7 +2231,7 @@
         <v>5</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>11</v>
@@ -2242,7 +2242,7 @@
         <v>16</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>11</v>
@@ -2253,7 +2253,7 @@
         <v>9</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>49</v>
@@ -2264,7 +2264,7 @@
         <v>4</v>
       </c>
       <c r="C160" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -2272,7 +2272,7 @@
         <v>5</v>
       </c>
       <c r="C161" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>17</v>
@@ -2283,10 +2283,10 @@
         <v>38</v>
       </c>
       <c r="C162" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -2294,7 +2294,7 @@
         <v>5</v>
       </c>
       <c r="C163" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>50</v>
@@ -2305,7 +2305,7 @@
         <v>38</v>
       </c>
       <c r="C164" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>51</v>
@@ -2316,7 +2316,7 @@
         <v>9</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>14</v>
@@ -2327,7 +2327,7 @@
         <v>5</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>12</v>
@@ -2338,7 +2338,7 @@
         <v>13</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -2346,18 +2346,18 @@
         <v>4</v>
       </c>
       <c r="C168" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>6</v>
@@ -2368,7 +2368,7 @@
         <v>16</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>6</v>
@@ -2379,7 +2379,7 @@
         <v>5</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>17</v>
@@ -2390,7 +2390,7 @@
         <v>16</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>17</v>
@@ -2401,7 +2401,7 @@
         <v>5</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>18</v>
@@ -2412,7 +2412,7 @@
         <v>16</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>18</v>
@@ -2423,7 +2423,7 @@
         <v>5</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>11</v>
@@ -2434,7 +2434,7 @@
         <v>16</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>11</v>
@@ -2445,7 +2445,7 @@
         <v>9</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>49</v>
@@ -2456,7 +2456,7 @@
         <v>9</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>14</v>
@@ -2467,7 +2467,7 @@
         <v>5</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>12</v>
@@ -2478,7 +2478,7 @@
         <v>13</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -2486,7 +2486,7 @@
         <v>4</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -2494,7 +2494,7 @@
         <v>26</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>36</v>
@@ -2502,13 +2502,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>6</v>
@@ -2519,7 +2519,7 @@
         <v>16</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>6</v>
@@ -2530,7 +2530,7 @@
         <v>5</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>17</v>
@@ -2541,7 +2541,7 @@
         <v>16</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>17</v>
@@ -2552,7 +2552,7 @@
         <v>5</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>18</v>
@@ -2563,7 +2563,7 @@
         <v>16</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>18</v>
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>11</v>
@@ -2585,7 +2585,7 @@
         <v>16</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>11</v>
@@ -2596,7 +2596,7 @@
         <v>9</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>52</v>
@@ -2607,7 +2607,7 @@
         <v>4</v>
       </c>
       <c r="C194" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -2615,7 +2615,7 @@
         <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>53</v>
@@ -2626,7 +2626,7 @@
         <v>9</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>14</v>
@@ -2637,7 +2637,7 @@
         <v>5</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>12</v>
@@ -2648,7 +2648,7 @@
         <v>4</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -2656,7 +2656,7 @@
         <v>13</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -2664,18 +2664,18 @@
         <v>4</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>6</v>
@@ -2686,7 +2686,7 @@
         <v>16</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>6</v>
@@ -2697,7 +2697,7 @@
         <v>5</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>17</v>
@@ -2708,7 +2708,7 @@
         <v>16</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>17</v>
@@ -2719,7 +2719,7 @@
         <v>5</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>18</v>
@@ -2730,7 +2730,7 @@
         <v>16</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>18</v>
@@ -2741,7 +2741,7 @@
         <v>5</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>11</v>
@@ -2752,7 +2752,7 @@
         <v>16</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>11</v>
@@ -2763,7 +2763,7 @@
         <v>9</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>52</v>
@@ -2774,7 +2774,7 @@
         <v>9</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>14</v>
@@ -2785,7 +2785,7 @@
         <v>5</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>12</v>
@@ -2796,7 +2796,7 @@
         <v>13</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -2804,7 +2804,7 @@
         <v>4</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -2812,7 +2812,7 @@
         <v>26</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>36</v>
@@ -2820,13 +2820,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>6</v>
@@ -2837,7 +2837,7 @@
         <v>16</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>6</v>
@@ -2848,7 +2848,7 @@
         <v>5</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>17</v>
@@ -2859,7 +2859,7 @@
         <v>16</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>17</v>
@@ -2870,7 +2870,7 @@
         <v>5</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>18</v>
@@ -2881,7 +2881,7 @@
         <v>16</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>18</v>
@@ -2892,7 +2892,7 @@
         <v>5</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>11</v>
@@ -2903,7 +2903,7 @@
         <v>16</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>11</v>
@@ -2914,7 +2914,7 @@
         <v>9</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>52</v>
@@ -2925,7 +2925,7 @@
         <v>4</v>
       </c>
       <c r="C226" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -2933,7 +2933,7 @@
         <v>9</v>
       </c>
       <c r="C227" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>53</v>
@@ -2944,7 +2944,7 @@
         <v>9</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>14</v>
@@ -2955,7 +2955,7 @@
         <v>5</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>12</v>
@@ -2966,7 +2966,7 @@
         <v>4</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -2974,7 +2974,7 @@
         <v>26</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>54</v>
@@ -2985,7 +2985,7 @@
         <v>13</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -2993,7 +2993,7 @@
         <v>13</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -3001,7 +3001,7 @@
         <v>4</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">

--- a/src/main/resources/FeatureFiles/CouchbaseVsMongoDbPageTestCases.xlsx
+++ b/src/main/resources/FeatureFiles/CouchbaseVsMongoDbPageTestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurcharan/Desktop/CouchBase/src/main/resources/FeatureFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D209CC80-FB78-D041-AD1B-1C16CEC02E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C453AD94-0A05-D64E-9C9F-6E1A8BC55B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="89">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -81,12 +81,6 @@
     <t>To-mar</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>All fields are valid</t>
-  </si>
-  <si>
     <t>gotoUrl</t>
   </si>
   <si>
@@ -292,6 +286,9 @@
   </si>
   <si>
     <t>{BaseURL}+/comparing-couchbase-vs-mongodb-mobile/</t>
+  </si>
+  <si>
+    <t>Tags</t>
   </si>
 </sst>
 </file>
@@ -662,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -689,29 +686,27 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -719,7 +714,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -727,23 +722,23 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -754,7 +749,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -765,7 +760,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>17</v>
@@ -776,7 +771,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>17</v>
@@ -787,7 +782,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>18</v>
@@ -798,7 +793,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>18</v>
@@ -809,7 +804,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
@@ -820,7 +815,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
@@ -831,7 +826,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>10</v>
@@ -842,7 +837,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>14</v>
@@ -853,7 +848,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
@@ -864,7 +859,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -872,32 +867,32 @@
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -905,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>17</v>
@@ -913,10 +908,10 @@
     </row>
     <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>17</v>
@@ -927,7 +922,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>18</v>
@@ -935,10 +930,10 @@
     </row>
     <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>18</v>
@@ -949,7 +944,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>11</v>
@@ -957,10 +952,10 @@
     </row>
     <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>11</v>
@@ -971,7 +966,7 @@
         <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>10</v>
@@ -982,7 +977,7 @@
         <v>9</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>14</v>
@@ -993,7 +988,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>12</v>
@@ -1004,7 +999,7 @@
         <v>13</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1012,32 +1007,32 @@
         <v>4</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1045,10 +1040,10 @@
         <v>16</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1056,7 +1051,7 @@
         <v>5</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
@@ -1067,7 +1062,7 @@
         <v>16</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>6</v>
@@ -1078,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>18</v>
@@ -1089,7 +1084,7 @@
         <v>16</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>18</v>
@@ -1100,7 +1095,7 @@
         <v>5</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>11</v>
@@ -1111,7 +1106,7 @@
         <v>16</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>11</v>
@@ -1122,7 +1117,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>10</v>
@@ -1133,7 +1128,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>14</v>
@@ -1144,7 +1139,7 @@
         <v>5</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>12</v>
@@ -1155,7 +1150,7 @@
         <v>13</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1163,29 +1158,29 @@
         <v>4</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>17</v>
@@ -1196,7 +1191,7 @@
         <v>16</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>17</v>
@@ -1207,7 +1202,7 @@
         <v>5</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>6</v>
@@ -1218,7 +1213,7 @@
         <v>16</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>6</v>
@@ -1229,10 +1224,10 @@
         <v>5</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1240,10 +1235,10 @@
         <v>16</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1251,7 +1246,7 @@
         <v>5</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>11</v>
@@ -1262,7 +1257,7 @@
         <v>16</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>11</v>
@@ -1273,7 +1268,7 @@
         <v>9</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>10</v>
@@ -1284,7 +1279,7 @@
         <v>9</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>14</v>
@@ -1295,7 +1290,7 @@
         <v>5</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>12</v>
@@ -1306,7 +1301,7 @@
         <v>13</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1314,29 +1309,29 @@
         <v>4</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>17</v>
@@ -1347,7 +1342,7 @@
         <v>16</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>17</v>
@@ -1358,7 +1353,7 @@
         <v>5</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>6</v>
@@ -1369,7 +1364,7 @@
         <v>16</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>6</v>
@@ -1380,10 +1375,10 @@
         <v>5</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D71" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -1391,10 +1386,10 @@
         <v>16</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -1402,10 +1397,10 @@
         <v>5</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -1413,10 +1408,10 @@
         <v>16</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -1424,7 +1419,7 @@
         <v>9</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>10</v>
@@ -1435,7 +1430,7 @@
         <v>9</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>14</v>
@@ -1446,7 +1441,7 @@
         <v>5</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>12</v>
@@ -1457,7 +1452,7 @@
         <v>13</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -1465,29 +1460,29 @@
         <v>4</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>17</v>
@@ -1498,7 +1493,7 @@
         <v>16</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>17</v>
@@ -1509,7 +1504,7 @@
         <v>5</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>6</v>
@@ -1520,7 +1515,7 @@
         <v>16</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>6</v>
@@ -1531,10 +1526,10 @@
         <v>5</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D86" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -1542,10 +1537,10 @@
         <v>16</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -1553,10 +1548,10 @@
         <v>5</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -1564,10 +1559,10 @@
         <v>16</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -1575,7 +1570,7 @@
         <v>9</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>10</v>
@@ -1586,7 +1581,7 @@
         <v>9</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>14</v>
@@ -1597,7 +1592,7 @@
         <v>13</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -1605,29 +1600,29 @@
         <v>4</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>17</v>
@@ -1638,7 +1633,7 @@
         <v>16</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>17</v>
@@ -1649,7 +1644,7 @@
         <v>5</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>6</v>
@@ -1660,7 +1655,7 @@
         <v>16</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>6</v>
@@ -1671,10 +1666,10 @@
         <v>5</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D100" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -1682,10 +1677,10 @@
         <v>16</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -1693,10 +1688,10 @@
         <v>5</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -1704,10 +1699,10 @@
         <v>16</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -1715,7 +1710,7 @@
         <v>9</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>10</v>
@@ -1726,7 +1721,7 @@
         <v>5</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>12</v>
@@ -1737,7 +1732,7 @@
         <v>13</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -1745,29 +1740,29 @@
         <v>4</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B108" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>17</v>
@@ -1778,7 +1773,7 @@
         <v>16</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>17</v>
@@ -1789,7 +1784,7 @@
         <v>5</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>6</v>
@@ -1800,7 +1795,7 @@
         <v>16</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>6</v>
@@ -1811,10 +1806,10 @@
         <v>5</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D114" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -1822,10 +1817,10 @@
         <v>16</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -1833,10 +1828,10 @@
         <v>5</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -1844,10 +1839,10 @@
         <v>16</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -1855,7 +1850,7 @@
         <v>9</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>14</v>
@@ -1866,7 +1861,7 @@
         <v>5</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>12</v>
@@ -1877,7 +1872,7 @@
         <v>13</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -1885,29 +1880,29 @@
         <v>4</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B122" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>6</v>
@@ -1918,7 +1913,7 @@
         <v>16</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>6</v>
@@ -1929,7 +1924,7 @@
         <v>5</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>18</v>
@@ -1940,7 +1935,7 @@
         <v>16</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>18</v>
@@ -1951,7 +1946,7 @@
         <v>5</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>11</v>
@@ -1962,7 +1957,7 @@
         <v>16</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>11</v>
@@ -1973,7 +1968,7 @@
         <v>9</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>10</v>
@@ -1984,7 +1979,7 @@
         <v>9</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>14</v>
@@ -1995,7 +1990,7 @@
         <v>5</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>12</v>
@@ -2006,7 +2001,7 @@
         <v>13</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -2014,29 +2009,29 @@
         <v>4</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B136" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>6</v>
@@ -2047,7 +2042,7 @@
         <v>16</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>6</v>
@@ -2058,7 +2053,7 @@
         <v>5</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>17</v>
@@ -2069,7 +2064,7 @@
         <v>16</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>17</v>
@@ -2080,7 +2075,7 @@
         <v>5</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>11</v>
@@ -2091,7 +2086,7 @@
         <v>16</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>11</v>
@@ -2102,7 +2097,7 @@
         <v>9</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>10</v>
@@ -2113,7 +2108,7 @@
         <v>9</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>14</v>
@@ -2124,7 +2119,7 @@
         <v>5</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>12</v>
@@ -2135,7 +2130,7 @@
         <v>13</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -2143,29 +2138,29 @@
         <v>4</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B149" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>6</v>
@@ -2176,7 +2171,7 @@
         <v>16</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>6</v>
@@ -2187,7 +2182,7 @@
         <v>5</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>17</v>
@@ -2198,7 +2193,7 @@
         <v>16</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>17</v>
@@ -2209,7 +2204,7 @@
         <v>5</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>18</v>
@@ -2220,7 +2215,7 @@
         <v>16</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>18</v>
@@ -2231,7 +2226,7 @@
         <v>5</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>11</v>
@@ -2242,7 +2237,7 @@
         <v>16</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>11</v>
@@ -2253,10 +2248,10 @@
         <v>9</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -2264,7 +2259,7 @@
         <v>4</v>
       </c>
       <c r="C160" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -2272,7 +2267,7 @@
         <v>5</v>
       </c>
       <c r="C161" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>17</v>
@@ -2280,13 +2275,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B162" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C162" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -2294,21 +2289,21 @@
         <v>5</v>
       </c>
       <c r="C163" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B164" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C164" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -2316,7 +2311,7 @@
         <v>9</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>14</v>
@@ -2327,7 +2322,7 @@
         <v>5</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>12</v>
@@ -2338,7 +2333,7 @@
         <v>13</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -2346,18 +2341,18 @@
         <v>4</v>
       </c>
       <c r="C168" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>6</v>
@@ -2368,7 +2363,7 @@
         <v>16</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>6</v>
@@ -2379,7 +2374,7 @@
         <v>5</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>17</v>
@@ -2390,7 +2385,7 @@
         <v>16</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>17</v>
@@ -2401,7 +2396,7 @@
         <v>5</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>18</v>
@@ -2412,7 +2407,7 @@
         <v>16</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>18</v>
@@ -2423,7 +2418,7 @@
         <v>5</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>11</v>
@@ -2434,7 +2429,7 @@
         <v>16</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>11</v>
@@ -2445,10 +2440,10 @@
         <v>9</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -2456,7 +2451,7 @@
         <v>9</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>14</v>
@@ -2467,7 +2462,7 @@
         <v>5</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>12</v>
@@ -2478,7 +2473,7 @@
         <v>13</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -2486,29 +2481,29 @@
         <v>4</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B183" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>6</v>
@@ -2519,7 +2514,7 @@
         <v>16</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>6</v>
@@ -2530,7 +2525,7 @@
         <v>5</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>17</v>
@@ -2541,7 +2536,7 @@
         <v>16</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>17</v>
@@ -2552,7 +2547,7 @@
         <v>5</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>18</v>
@@ -2563,7 +2558,7 @@
         <v>16</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>18</v>
@@ -2574,7 +2569,7 @@
         <v>5</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>11</v>
@@ -2585,7 +2580,7 @@
         <v>16</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>11</v>
@@ -2596,10 +2591,10 @@
         <v>9</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -2607,7 +2602,7 @@
         <v>4</v>
       </c>
       <c r="C194" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -2615,10 +2610,10 @@
         <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -2626,7 +2621,7 @@
         <v>9</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>14</v>
@@ -2637,7 +2632,7 @@
         <v>5</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>12</v>
@@ -2648,7 +2643,7 @@
         <v>4</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -2656,7 +2651,7 @@
         <v>13</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -2664,18 +2659,18 @@
         <v>4</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>6</v>
@@ -2686,7 +2681,7 @@
         <v>16</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>6</v>
@@ -2697,7 +2692,7 @@
         <v>5</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>17</v>
@@ -2708,7 +2703,7 @@
         <v>16</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>17</v>
@@ -2719,7 +2714,7 @@
         <v>5</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>18</v>
@@ -2730,7 +2725,7 @@
         <v>16</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>18</v>
@@ -2741,7 +2736,7 @@
         <v>5</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>11</v>
@@ -2752,7 +2747,7 @@
         <v>16</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>11</v>
@@ -2763,10 +2758,10 @@
         <v>9</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -2774,7 +2769,7 @@
         <v>9</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>14</v>
@@ -2785,7 +2780,7 @@
         <v>5</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>12</v>
@@ -2796,7 +2791,7 @@
         <v>13</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -2804,29 +2799,29 @@
         <v>4</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B215" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>6</v>
@@ -2837,7 +2832,7 @@
         <v>16</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>6</v>
@@ -2848,7 +2843,7 @@
         <v>5</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>17</v>
@@ -2859,7 +2854,7 @@
         <v>16</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>17</v>
@@ -2870,7 +2865,7 @@
         <v>5</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>18</v>
@@ -2881,7 +2876,7 @@
         <v>16</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>18</v>
@@ -2892,7 +2887,7 @@
         <v>5</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>11</v>
@@ -2903,7 +2898,7 @@
         <v>16</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>11</v>
@@ -2914,10 +2909,10 @@
         <v>9</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -2925,7 +2920,7 @@
         <v>4</v>
       </c>
       <c r="C226" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -2933,10 +2928,10 @@
         <v>9</v>
       </c>
       <c r="C227" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -2944,7 +2939,7 @@
         <v>9</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>14</v>
@@ -2955,7 +2950,7 @@
         <v>5</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>12</v>
@@ -2966,18 +2961,18 @@
         <v>4</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B231" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -2985,7 +2980,7 @@
         <v>13</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -2993,7 +2988,7 @@
         <v>13</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -3001,12 +2996,12 @@
         <v>4</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>15</v>
@@ -3041,7 +3036,7 @@
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -3050,13 +3045,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -3065,7 +3060,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
